--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>950675.6937010299</v>
+        <v>948240.0567773234</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673422</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.62149822509145</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>262.4573049022948</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>172.9624173540214</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.6353666620228</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>407.8895948559958</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>178.6791576837117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.7576914549238</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>32.85881373760815</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.4006848126156</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,13 +1184,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778481</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153806</v>
       </c>
       <c r="Y10" t="n">
-        <v>135.259425062653</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.0830593329758</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>327.746122189389</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806771</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203237998</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114085</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458122</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035096</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.2535382468619</v>
+        <v>123.253538246862</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.1004521009512</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>37.30359504419568</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076761</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352878</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793451</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>8.525937238643891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819405</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.20549876775846</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824964</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>73.44478684180606</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>82.85993176807925</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272887</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6452826062320446</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722622</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986264</v>
+        <v>101.6969570047005</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>74.99129529219263</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="32">
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>7.069540131684702</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444126</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>79.41314830963759</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>72.97607332171654</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161906227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3791,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576157</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881283</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182135</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419834082</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,13 +3955,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>46.52295781333125</v>
+        <v>252.1376433238291</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>149.1095818503215</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.200456328342</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1063.934757721592</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>678.1465051233477</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>671.2010043741442</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>608.7574741064773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>608.7574741064773</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1662.754578367211</v>
+        <v>1424.011591242372</v>
       </c>
       <c r="U4" t="n">
-        <v>1373.651711492855</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1118.967223286968</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W4" t="n">
-        <v>829.5500532500074</v>
+        <v>590.8070661251681</v>
       </c>
       <c r="X4" t="n">
-        <v>829.5500532500074</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.7574741064773</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1210.836060705128</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>825.0478081068841</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>818.1023073576806</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,19 +4562,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V5" t="n">
-        <v>2685.613599606915</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.8449443368</v>
+        <v>2719.306689612892</v>
       </c>
       <c r="X5" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.840931351812</v>
       </c>
       <c r="Y5" t="n">
-        <v>1959.379186075721</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4638,19 @@
         <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064622</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1101.718003420938</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>812.300833383977</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836216</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>921.7704558796261</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>916.3152186951659</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>456.2408785036205</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1908.724590950439</v>
+        <v>1535.25883268935</v>
       </c>
       <c r="C11" t="n">
-        <v>1908.724590950439</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1550.458892343689</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738906</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035376</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907324</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420346</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301228</v>
+        <v>1232.419981301224</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878115</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765431</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687109</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856291</v>
+        <v>3535.048359856283</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388225</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.5533112346</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.58813245567</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.78602197145</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604058</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260487</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990373</v>
+        <v>2685.463762990364</v>
       </c>
       <c r="X11" t="n">
-        <v>2685.463762990373</v>
+        <v>2311.998004729284</v>
       </c>
       <c r="Y11" t="n">
-        <v>2295.324431014561</v>
+        <v>1921.858672753472</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,28 +5112,28 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503049</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792134</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376515</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>477.1621322376515</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>990.4759064815418</v>
+        <v>1413.763713908849</v>
       </c>
       <c r="N12" t="n">
-        <v>1518.698809735871</v>
+        <v>1955.072021259916</v>
       </c>
       <c r="O12" t="n">
-        <v>1991.670362601621</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
         <v>2351.938665441777</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.9909637481492</v>
+        <v>203.8650582458548</v>
       </c>
       <c r="C13" t="n">
-        <v>245.9909637481492</v>
+        <v>203.8650582458547</v>
       </c>
       <c r="D13" t="n">
-        <v>245.9909637481492</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="E13" t="n">
-        <v>245.9909637481492</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.511066224692</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600403</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.455047345771</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888928</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779223</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542996</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715851</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082524</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551108</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2118.228644516567</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1930.42798087245</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1709.613923422495</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.523216862784</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1165.838728656897</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>876.4215586199364</v>
+        <v>834.2956531176419</v>
       </c>
       <c r="X13" t="n">
-        <v>648.432007721919</v>
+        <v>606.3061022196246</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.6394285783889</v>
+        <v>385.5135230760944</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,7 +5261,7 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060311</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>93.85065580060311</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3593983639619</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>915.0917312077131</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.110085459841</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.206048859177</v>
+        <v>1355.754362358723</v>
       </c>
       <c r="O15" t="n">
-        <v>2286.888151551083</v>
+        <v>1902.630837358917</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.5125670724609</v>
+        <v>494.058990022073</v>
       </c>
       <c r="C16" t="n">
-        <v>787.576384144554</v>
+        <v>494.058990022073</v>
       </c>
       <c r="D16" t="n">
-        <v>637.4597447322183</v>
+        <v>494.058990022073</v>
       </c>
       <c r="E16" t="n">
-        <v>489.5466511498252</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693323</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5452,13 +5452,13 @@
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368669</v>
+        <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
         <v>2177.346239107599</v>
@@ -5467,19 +5467,19 @@
         <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1668.591243136707</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1413.90675493082</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1405.294697114008</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1177.305146215991</v>
+        <v>896.5000339958428</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.5125670724609</v>
+        <v>675.7074548523127</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,16 +5534,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466572</v>
@@ -5555,10 +5555,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5598,22 +5598,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6918836311959</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C19" t="n">
-        <v>632.755700703289</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D19" t="n">
-        <v>482.6390612909532</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E19" t="n">
-        <v>334.7259677085601</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,10 +5683,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="20">
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835328</v>
+        <v>559.0424953278209</v>
       </c>
       <c r="D22" t="n">
-        <v>697.527634571197</v>
+        <v>408.9258559154852</v>
       </c>
       <c r="E22" t="n">
-        <v>549.614540988804</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T22" t="n">
         <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1970.320130882544</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.635642676657</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1426.218472639697</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1198.228921741679</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.228921741679</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770314</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C25" t="n">
-        <v>634.3345878491245</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D25" t="n">
-        <v>550.637687073287</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718103</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750801</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072712</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="26">
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,16 +6382,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,16 +6494,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413011</v>
+        <v>513.8536007400746</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133955</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133955</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310024</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>261.012762333092</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2188.359466111738</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1899.284239455936</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.599751250049</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213088</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315071</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.4004511715408</v>
+        <v>695.5020655703144</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6862,7 +6862,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6923,28 +6923,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362675</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6962,10 +6962,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>139.234765840794</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>634.5603720565526</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1231.938859683105</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1859.536823237711</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>869.9745311434706</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>701.0383482155637</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>550.9217088032278</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E37" t="n">
-        <v>403.0086152208348</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>256.1186677229246</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>256.1186677229246</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2044.506784258105</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1789.822296052218</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.41557511724</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>1051.62299597371</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>411.9631215597617</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="E40" t="n">
-        <v>334.7259677085633</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="F40" t="n">
-        <v>334.7259677085633</v>
+        <v>261.8464821474259</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5298684234428</v>
+        <v>94.65038286230583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782952</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038336</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
@@ -7348,16 +7348,16 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
         <v>2044.506784258106</v>
@@ -7372,10 +7372,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7439,19 +7439,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911441</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835343</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998273</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.438670922172</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.021500885211</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.021500885211</v>
+        <v>916.2946447138399</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.228921741681</v>
+        <v>695.5020655703098</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.18983243803177</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>54.18424788287274</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.51502091726113</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034029</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.70464644726757</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729085</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>60.16217041863466</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>277.9970610979471</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>47.21554925517279</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856624</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>212.7396875474381</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.75554125013311</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.45968844823061</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>251.4923607175959</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>65.54986409392737</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.4141550350956</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.5151132204101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922723</v>
       </c>
       <c r="H37" t="n">
-        <v>60.8815645365863</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>67.31863952450703</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237491</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459042</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,13 +25843,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>205.6146855104967</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.36835372228784</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>76.60007353871566</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896666.1660918932</v>
+        <v>896666.1660918921</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>975414.6052658836</v>
+        <v>975414.6052658834</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>980774.7989282537</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>980774.7989282538</v>
+        <v>980774.7989282539</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>980774.7989282538</v>
+        <v>980774.7989282539</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>980774.7989282539</v>
+        <v>980774.7989282538</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253558</v>
-      </c>
       <c r="E2" t="n">
-        <v>405380.8397795046</v>
+        <v>405380.8397795041</v>
       </c>
       <c r="F2" t="n">
-        <v>441473.8744009171</v>
+        <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295035</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26341,19 +26341,19 @@
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295036</v>
       </c>
       <c r="O2" t="n">
         <v>443930.6298295035</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185179</v>
+        <v>143114.1392185157</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051358</v>
+        <v>166521.3471051376</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557904</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115386</v>
+        <v>37377.32855115322</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848856</v>
+        <v>43782.40655848906</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224693</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818182</v>
       </c>
       <c r="C4" t="n">
+        <v>92183.89891818175</v>
+      </c>
+      <c r="D4" t="n">
         <v>92183.8989181817</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12897.74318952439</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214727</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1077289.611781812</v>
+        <v>-1077289.611781811</v>
       </c>
       <c r="C6" t="n">
-        <v>251455.1339457809</v>
+        <v>251455.1339457806</v>
       </c>
       <c r="D6" t="n">
         <v>251455.1339457808</v>
       </c>
       <c r="E6" t="n">
-        <v>163275.2352093151</v>
+        <v>163065.2709654721</v>
       </c>
       <c r="F6" t="n">
-        <v>161820.0672563378</v>
+        <v>161774.1622607704</v>
       </c>
       <c r="G6" t="n">
-        <v>318643.9996231869</v>
+        <v>318609.2616977507</v>
       </c>
       <c r="H6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333302</v>
       </c>
       <c r="I6" t="n">
-        <v>329811.2358587658</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="J6" t="n">
-        <v>112280.0334614885</v>
+        <v>112245.2955360528</v>
       </c>
       <c r="K6" t="n">
-        <v>329811.2358587656</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="L6" t="n">
-        <v>329811.2358587661</v>
+        <v>329776.4979333301</v>
       </c>
       <c r="M6" t="n">
-        <v>292433.9073076118</v>
+        <v>292399.1693821769</v>
       </c>
       <c r="N6" t="n">
-        <v>286028.8293002773</v>
+        <v>285994.0913748412</v>
       </c>
       <c r="O6" t="n">
-        <v>326787.9378815412</v>
+        <v>326753.1999561054</v>
       </c>
       <c r="P6" t="n">
-        <v>329811.2358587659</v>
+        <v>329776.4979333299</v>
       </c>
     </row>
   </sheetData>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494558</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>981.38832780865</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012594</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218279</v>
+        <v>145.8707812218295</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173564</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063547</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173564</v>
+        <v>178.7569625173585</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063573</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173564</v>
+        <v>178.7569625173583</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383891</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>148.4644207511587</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>46.58653192214777</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0742887270144</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.032130797457683</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>149.0731007864233</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270135</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>219.2788295862198</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>359.8722069583919</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228679</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,25 +28059,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.556976973656589</v>
       </c>
       <c r="Y10" t="n">
-        <v>83.32522828944178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>9.597682782528388e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9.001264333741981e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.456791136633773e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29098,7 +29098,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.344318291526019e-13</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -29670,7 +29670,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.119400868295391e-12</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30156,7 +30156,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30511,10 +30511,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>3.584348898091127e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>3.183564523112636e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485656</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508998</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380259</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307185</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726065</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216983</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857437</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898399</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294419</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615146</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895595</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356986</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951045</v>
+        <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475347</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188524</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969426</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191525</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.7692132059649</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.3335823783045</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.023327720256</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845339</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>664.9002002190199</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431818</v>
+        <v>179.5642660017238</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205477</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.820787407185</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>161.8819085533299</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697593</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780659</v>
+        <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190413</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236088</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737177</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691799</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836914</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619745</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.980861550918</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263714</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973099</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050064</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.37234817619</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916782</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570623</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929617</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826917</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
-        <v>0.119229862376514</v>
+        <v>0.1192298623765138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -31999,25 +31999,25 @@
         <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
         <v>342.9428985987162</v>
@@ -32029,7 +32029,7 @@
         <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
         <v>28.2113810308819</v>
@@ -32075,34 +32075,34 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>427.3161054158224</v>
       </c>
       <c r="O15" t="n">
-        <v>301.8710956483899</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
         <v>11.77395965821092</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
         <v>364.0885788640618</v>
@@ -32166,13 +32166,13 @@
         <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
         <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>231.5286848890172</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,16 +32555,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,16 +32789,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>270.9716933356906</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,7 +32807,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>638.4800548179292</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,13 +33983,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>472.0729312464055</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,19 +34454,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>353.130074847795</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040322</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276259</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.236839251711</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.318058158471</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932489</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077551</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062451</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151099</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156644</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116378</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.181888745897</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625155</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>533.5584881356866</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987373</v>
+        <v>36.96802155727939</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062175</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211635</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936593</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701861</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360916</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112341</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.230629788212</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765385</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.549444619046</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410835</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998383</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053107</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>295.9743933324891</v>
       </c>
       <c r="O15" t="n">
-        <v>159.2748512039455</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
         <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
         <v>370.7297545606359</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>92.97430510914305</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,16 +36203,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558164</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,7 +36455,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>496.3460208959108</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,13 +37631,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>340.7312191630721</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>434.2980917413143</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,19 +38102,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>219.1556674334648</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
